--- a/medicine/Psychotrope/Château_de_Pechrigal/Château_de_Pechrigal.xlsx
+++ b/medicine/Psychotrope/Château_de_Pechrigal/Château_de_Pechrigal.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Pechrigal</t>
+          <t>Château_de_Pechrigal</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le château de Pechrigal ou Pech Rigal, prononcé [pɛʁdʁiɡal], est situé à Saint-Clair, dans le Lot, en France.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Pechrigal</t>
+          <t>Château_de_Pechrigal</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un lieu  d'« histoires » parce qu'il a été la propriété et le lieu d'habitation de Léo Ferré. Il a valu à ce dernier sa réputation de châtelain.
 Propriété de la famille Séguy sous la royauté, il est passé à la famille Perie, à la famille Louis Lasvignes-Salanié puis aux familles Dreyffus. Léo Ferré les a suivis en 1965. Il est ensuite devenu en 1998 la propriété d'un Américain, John Manchec, qui l'a restauré et transformé en hôtel de luxe.
-En 2018, John Manchec avait mis le château en vente sur le marché à 4,7 millions d’euros mais n’avait pas trouvé preneur. Le 13 octobre 2020, le château a été mis en vente aux enchères en ligne, par la société américaine Concierge Auctions, spécialisée dans les propriétés de luxe. Mis en vente à 900 000 euros, la dernière enchère s’est fixée à 1,51 million d’euros[1]. Cependant, cette vente n'aboutira pas[2]. 
+En 2018, John Manchec avait mis le château en vente sur le marché à 4,7 millions d’euros mais n’avait pas trouvé preneur. Le 13 octobre 2020, le château a été mis en vente aux enchères en ligne, par la société américaine Concierge Auctions, spécialisée dans les propriétés de luxe. Mis en vente à 900 000 euros, la dernière enchère s’est fixée à 1,51 million d’euros. Cependant, cette vente n'aboutira pas. 
 En mai 2023, John Manchec tente de s'évader d'une prison américaine en Floride pour rejoindre son château. 
 </t>
         </is>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ch%C3%A2teau_de_Pechrigal</t>
+          <t>Château_de_Pechrigal</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,6 +561,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
